--- a/cta策略/result/螺纹/ROC_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/绩效.xlsx
@@ -420,16 +420,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-0.1814069743485924</v>
+        <v>-0.1677312504765022</v>
       </c>
       <c r="D2">
-        <v>-0.8071282583695203</v>
+        <v>-0.810915223805641</v>
       </c>
       <c r="E2">
-        <v>-0.2827672938851472</v>
+        <v>-0.2035821057171885</v>
       </c>
       <c r="F2">
-        <v>0.35</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,16 +440,16 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.04123538219977374</v>
+        <v>-0.009074810995593374</v>
       </c>
       <c r="D3">
-        <v>0.004567680815572833</v>
+        <v>-0.1935164837984399</v>
       </c>
       <c r="E3">
-        <v>0.1202257324660003</v>
+        <v>-0.0162625358626066</v>
       </c>
       <c r="F3">
-        <v>0.65</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,16 +460,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.1288431721646945</v>
+        <v>0.05305206656698647</v>
       </c>
       <c r="D4">
-        <v>0.3310107293796644</v>
+        <v>0.05187149767826359</v>
       </c>
       <c r="E4">
-        <v>0.4069639342773517</v>
+        <v>0.1094697342551024</v>
       </c>
       <c r="F4">
-        <v>0.6</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,16 +480,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.05310362422941695</v>
+        <v>-0.03717936254994048</v>
       </c>
       <c r="D5">
-        <v>0.04874373950895043</v>
+        <v>-0.3062284992496824</v>
       </c>
       <c r="E5">
-        <v>0.1230772406052081</v>
+        <v>-0.05124085931931537</v>
       </c>
       <c r="F5">
-        <v>0.65</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,16 +500,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.003863284690610147</v>
+        <v>-0.06230663088237021</v>
       </c>
       <c r="D6">
-        <v>-0.1346627508484394</v>
+        <v>-0.4066428877931759</v>
       </c>
       <c r="E6">
-        <v>0.006215105637489033</v>
+        <v>-0.07665566096576386</v>
       </c>
       <c r="F6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,16 +520,16 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.1520003965217021</v>
+        <v>0.04987169343545772</v>
       </c>
       <c r="D7">
-        <v>0.4183348524318416</v>
+        <v>0.03930245960869635</v>
       </c>
       <c r="E7">
-        <v>0.3110435569691705</v>
+        <v>0.07817508712985177</v>
       </c>
       <c r="F7">
-        <v>0.65</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,16 +540,16 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.1432723955531785</v>
+        <v>0.07821580675111539</v>
       </c>
       <c r="D8">
-        <v>0.3870949898236873</v>
+        <v>0.1528303913823124</v>
       </c>
       <c r="E8">
-        <v>0.3050656668311167</v>
+        <v>0.1218122478789698</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,16 +560,16 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0.1166049619161129</v>
+        <v>0.08093690184102198</v>
       </c>
       <c r="D9">
-        <v>0.2898533577527576</v>
+        <v>0.1650059893236825</v>
       </c>
       <c r="E9">
-        <v>0.2541409399654667</v>
+        <v>0.1624888222661955</v>
       </c>
       <c r="F9">
-        <v>0.7</v>
+        <v>0.6764705882352942</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/ROC_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>参数</t>
   </si>
@@ -32,6 +32,30 @@
   </si>
   <si>
     <t>绩效数据</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -416,160 +440,160 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.1677312504765022</v>
+        <v>-0.1250210167210252</v>
       </c>
       <c r="D2">
-        <v>-0.810915223805641</v>
+        <v>-0.7363987685459865</v>
       </c>
       <c r="E2">
-        <v>-0.2035821057171885</v>
+        <v>-0.1948759396044043</v>
       </c>
       <c r="F2">
-        <v>0.2941176470588235</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.009074810995593374</v>
+        <v>0.0273275037522136</v>
       </c>
       <c r="D3">
-        <v>-0.1935164837984399</v>
+        <v>-0.05736658503144194</v>
       </c>
       <c r="E3">
-        <v>-0.0162625358626066</v>
+        <v>0.07967597193982789</v>
       </c>
       <c r="F3">
-        <v>0.5588235294117647</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.05305206656698647</v>
+        <v>0.08422140587638594</v>
       </c>
       <c r="D4">
-        <v>0.05187149767826359</v>
+        <v>0.2016858734071536</v>
       </c>
       <c r="E4">
-        <v>0.1094697342551024</v>
+        <v>0.2660216611401912</v>
       </c>
       <c r="F4">
-        <v>0.5588235294117647</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.03717936254994048</v>
+        <v>0.0351256687707362</v>
       </c>
       <c r="D5">
-        <v>-0.3062284992496824</v>
+        <v>-0.02219919150019363</v>
       </c>
       <c r="E5">
-        <v>-0.05124085931931537</v>
+        <v>0.0814100816930666</v>
       </c>
       <c r="F5">
-        <v>0.5588235294117647</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.06230663088237021</v>
+        <v>0.00257599052117663</v>
       </c>
       <c r="D6">
-        <v>-0.4066428877931759</v>
+        <v>-0.1707532395374333</v>
       </c>
       <c r="E6">
-        <v>-0.07665566096576386</v>
+        <v>0.00414415568420215</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.04987169343545772</v>
+        <v>0.09901131983460121</v>
       </c>
       <c r="D7">
-        <v>0.03930245960869635</v>
+        <v>0.2697964943821053</v>
       </c>
       <c r="E7">
-        <v>0.07817508712985177</v>
+        <v>0.2026102155409146</v>
       </c>
       <c r="F7">
-        <v>0.5588235294117647</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>20</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0.07821580675111539</v>
+        <v>0.09344869650867116</v>
       </c>
       <c r="D8">
-        <v>0.1528303913823124</v>
+        <v>0.2452320176545744</v>
       </c>
       <c r="E8">
-        <v>0.1218122478789698</v>
+        <v>0.1989775406828811</v>
       </c>
       <c r="F8">
-        <v>0.6176470588235294</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>60</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.08093690184102198</v>
+        <v>0.07636443531974413</v>
       </c>
       <c r="D9">
-        <v>0.1650059893236825</v>
+        <v>0.1684361239622728</v>
       </c>
       <c r="E9">
-        <v>0.1624888222661955</v>
+        <v>0.1664365654186632</v>
       </c>
       <c r="F9">
-        <v>0.6764705882352942</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/ROC_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/绩效.xlsx
@@ -444,13 +444,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.1250210167210252</v>
+        <v>-0.1221206278853045</v>
       </c>
       <c r="D2">
-        <v>-0.7363987685459865</v>
+        <v>-0.7283336776030791</v>
       </c>
       <c r="E2">
-        <v>-0.1948759396044043</v>
+        <v>-0.189079156332476</v>
       </c>
       <c r="F2">
         <v>0.35</v>
@@ -464,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.0273275037522136</v>
+        <v>0.02956348687584209</v>
       </c>
       <c r="D3">
-        <v>-0.05736658503144194</v>
+        <v>-0.047449594105406</v>
       </c>
       <c r="E3">
-        <v>0.07967597193982789</v>
+        <v>0.08826940148862938</v>
       </c>
       <c r="F3">
         <v>0.65</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.08422140587638594</v>
+        <v>0.08677334237329837</v>
       </c>
       <c r="D4">
-        <v>0.2016858734071536</v>
+        <v>0.2140279975559394</v>
       </c>
       <c r="E4">
-        <v>0.2660216611401912</v>
+        <v>0.2738851617228968</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -504,13 +504,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.0351256687707362</v>
+        <v>0.03707703310849952</v>
       </c>
       <c r="D5">
-        <v>-0.02219919150019363</v>
+        <v>-0.01334998716758757</v>
       </c>
       <c r="E5">
-        <v>0.0814100816930666</v>
+        <v>0.08748248396943446</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -524,13 +524,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.00257599052117663</v>
+        <v>0.004960106953652677</v>
       </c>
       <c r="D6">
-        <v>-0.1707532395374333</v>
+        <v>-0.1602548649472311</v>
       </c>
       <c r="E6">
-        <v>0.00414415568420215</v>
+        <v>0.008048514296849472</v>
       </c>
       <c r="F6">
         <v>0.6</v>
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.09901131983460121</v>
+        <v>0.1015658702093971</v>
       </c>
       <c r="D7">
-        <v>0.2697964943821053</v>
+        <v>0.2820466163792377</v>
       </c>
       <c r="E7">
-        <v>0.2026102155409146</v>
+        <v>0.2088514471004882</v>
       </c>
       <c r="F7">
         <v>0.65</v>
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.09344869650867116</v>
+        <v>0.09525082136416829</v>
       </c>
       <c r="D8">
-        <v>0.2452320176545744</v>
+        <v>0.2539308171746105</v>
       </c>
       <c r="E8">
-        <v>0.1989775406828811</v>
+        <v>0.2040209359574598</v>
       </c>
       <c r="F8">
         <v>0.7</v>
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.07636443531974413</v>
+        <v>0.07792008822385554</v>
       </c>
       <c r="D9">
-        <v>0.1684361239622728</v>
+        <v>0.175803068782195</v>
       </c>
       <c r="E9">
-        <v>0.1664365654186632</v>
+        <v>0.1702615353304257</v>
       </c>
       <c r="F9">
         <v>0.7</v>
